--- a/SCH-STH/Impact assessments/Benin/2024/Oct 2024/bj_sch_sth_impact_2410_4_urine_filtration.xlsx
+++ b/SCH-STH/Impact assessments/Benin/2024/Oct 2024/bj_sch_sth_impact_2410_4_urine_filtration.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bonhe\Repositories\dsa-forms\SCH-STH\Impact assessments\Benin\2024\Oct 2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Benin\2024\Oct 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F60907-2DB7-4A90-A228-92A9F6B6D2F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A73F6E2-77C9-4F3B-962E-F8982935D6BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -279,13 +279,13 @@
     <t>not(selected(${C3}, ${u_espen_code_id}))</t>
   </si>
   <si>
-    <t>bj_sch_sth_impact_2410_4_urine_filtration_v1</t>
-  </si>
-  <si>
-    <t>(2024 Octobre) - 4. SCH/STH - Urine Filtration V4</t>
-  </si>
-  <si>
-    <t>bj_u_2024</t>
+    <t>(2024 Octobre) - 4. SCH/STH - Urine Filtration V2</t>
+  </si>
+  <si>
+    <t>bj_sch_sth_impact_2410_4_urine_filtration_v2</t>
+  </si>
+  <si>
+    <t>bj_u_20242</t>
   </si>
 </sst>
 </file>
@@ -1649,7 +1649,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1671,10 +1671,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="32" t="s">
         <v>86</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>85</v>
       </c>
       <c r="C2" t="s">
         <v>38</v>
